--- a/MVFI/OK VINROSE.xlsx
+++ b/MVFI/OK VINROSE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="166">
   <si>
     <t xml:space="preserve">Fruité </t>
   </si>
@@ -657,13 +657,36 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;a class="dropdown-item" data-toggle="tab" role="tab" aria-selected="false" href="list-</t>
-  </si>
-  <si>
     <t>&lt;li&gt;</t>
   </si>
   <si>
     <t>&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;a type="button" class="btn" data-toggle="modal" data-target="#region-France-</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1033,7 +1056,7 @@
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90:G159"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,8 +1088,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>162</v>
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1078,15 +1104,18 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>162</v>
+      <c r="A5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1098,15 +1127,18 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>162</v>
+      <c r="A6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1118,15 +1150,18 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>162</v>
+      <c r="A7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1138,15 +1173,18 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>162</v>
+      <c r="A8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1158,15 +1196,18 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>162</v>
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1178,15 +1219,18 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>162</v>
+      <c r="A10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1198,15 +1242,18 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>162</v>
+      <c r="A11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1218,15 +1265,18 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>162</v>
+      <c r="A12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -1238,15 +1288,18 @@
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>162</v>
+      <c r="A13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>54</v>
@@ -1258,15 +1311,18 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>162</v>
+      <c r="A14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1278,15 +1334,18 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>162</v>
+      <c r="A15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
@@ -1298,7 +1357,7 @@
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>159</v>
@@ -2270,7 +2329,7 @@
     </row>
     <row r="90" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>56</v>
@@ -2279,7 +2338,7 @@
         <v>56</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>159</v>
@@ -2287,7 +2346,7 @@
     </row>
     <row r="91" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>57</v>
@@ -2296,7 +2355,7 @@
         <v>57</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>159</v>
@@ -2304,7 +2363,7 @@
     </row>
     <row r="92" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>58</v>
@@ -2313,7 +2372,7 @@
         <v>58</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>159</v>
@@ -2321,7 +2380,7 @@
     </row>
     <row r="93" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>59</v>
@@ -2330,7 +2389,7 @@
         <v>59</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>159</v>
@@ -2338,7 +2397,7 @@
     </row>
     <row r="94" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>60</v>
@@ -2347,7 +2406,7 @@
         <v>60</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>159</v>
@@ -2355,7 +2414,7 @@
     </row>
     <row r="95" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>61</v>
@@ -2364,7 +2423,7 @@
         <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>159</v>
@@ -2372,7 +2431,7 @@
     </row>
     <row r="96" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>62</v>
@@ -2381,7 +2440,7 @@
         <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>159</v>
@@ -2389,7 +2448,7 @@
     </row>
     <row r="97" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>63</v>
@@ -2398,7 +2457,7 @@
         <v>63</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>159</v>
@@ -2406,7 +2465,7 @@
     </row>
     <row r="98" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>64</v>
@@ -2415,7 +2474,7 @@
         <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>159</v>
@@ -2423,7 +2482,7 @@
     </row>
     <row r="99" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>65</v>
@@ -2432,7 +2491,7 @@
         <v>65</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>159</v>
@@ -2440,7 +2499,7 @@
     </row>
     <row r="100" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>66</v>
@@ -2449,7 +2508,7 @@
         <v>66</v>
       </c>
       <c r="F100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>159</v>
@@ -2457,7 +2516,7 @@
     </row>
     <row r="101" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>67</v>
@@ -2466,7 +2525,7 @@
         <v>67</v>
       </c>
       <c r="F101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>159</v>
@@ -2474,7 +2533,7 @@
     </row>
     <row r="102" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>68</v>
@@ -2483,7 +2542,7 @@
         <v>68</v>
       </c>
       <c r="F102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>159</v>
@@ -2491,7 +2550,7 @@
     </row>
     <row r="103" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>69</v>
@@ -2500,7 +2559,7 @@
         <v>69</v>
       </c>
       <c r="F103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>159</v>
@@ -2508,7 +2567,7 @@
     </row>
     <row r="104" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>70</v>
@@ -2517,7 +2576,7 @@
         <v>70</v>
       </c>
       <c r="F104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>159</v>
@@ -2525,7 +2584,7 @@
     </row>
     <row r="105" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>71</v>
@@ -2534,7 +2593,7 @@
         <v>71</v>
       </c>
       <c r="F105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>159</v>
@@ -2542,7 +2601,7 @@
     </row>
     <row r="106" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>72</v>
@@ -2551,7 +2610,7 @@
         <v>72</v>
       </c>
       <c r="F106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>159</v>
@@ -2559,7 +2618,7 @@
     </row>
     <row r="107" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>73</v>
@@ -2568,7 +2627,7 @@
         <v>73</v>
       </c>
       <c r="F107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>159</v>
@@ -2576,7 +2635,7 @@
     </row>
     <row r="108" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>74</v>
@@ -2585,7 +2644,7 @@
         <v>74</v>
       </c>
       <c r="F108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>159</v>
@@ -2593,7 +2652,7 @@
     </row>
     <row r="109" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>75</v>
@@ -2602,7 +2661,7 @@
         <v>75</v>
       </c>
       <c r="F109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>159</v>
@@ -2610,7 +2669,7 @@
     </row>
     <row r="110" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>76</v>
@@ -2619,7 +2678,7 @@
         <v>76</v>
       </c>
       <c r="F110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>159</v>
@@ -2627,7 +2686,7 @@
     </row>
     <row r="111" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>77</v>
@@ -2636,7 +2695,7 @@
         <v>77</v>
       </c>
       <c r="F111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>159</v>
@@ -2644,7 +2703,7 @@
     </row>
     <row r="112" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>78</v>
@@ -2653,7 +2712,7 @@
         <v>78</v>
       </c>
       <c r="F112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>159</v>
@@ -2661,7 +2720,7 @@
     </row>
     <row r="113" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>79</v>
@@ -2670,7 +2729,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>159</v>
@@ -2678,7 +2737,7 @@
     </row>
     <row r="114" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>80</v>
@@ -2687,7 +2746,7 @@
         <v>80</v>
       </c>
       <c r="F114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>159</v>
@@ -2695,7 +2754,7 @@
     </row>
     <row r="115" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>81</v>
@@ -2704,7 +2763,7 @@
         <v>81</v>
       </c>
       <c r="F115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>159</v>
@@ -2712,7 +2771,7 @@
     </row>
     <row r="116" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>82</v>
@@ -2721,7 +2780,7 @@
         <v>82</v>
       </c>
       <c r="F116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>159</v>
@@ -2729,7 +2788,7 @@
     </row>
     <row r="117" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>83</v>
@@ -2738,7 +2797,7 @@
         <v>83</v>
       </c>
       <c r="F117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>159</v>
@@ -2746,7 +2805,7 @@
     </row>
     <row r="118" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>84</v>
@@ -2755,7 +2814,7 @@
         <v>84</v>
       </c>
       <c r="F118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>159</v>
@@ -2763,7 +2822,7 @@
     </row>
     <row r="119" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>85</v>
@@ -2772,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="F119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>159</v>
@@ -2780,7 +2839,7 @@
     </row>
     <row r="120" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>86</v>
@@ -2789,7 +2848,7 @@
         <v>86</v>
       </c>
       <c r="F120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>159</v>
@@ -2797,7 +2856,7 @@
     </row>
     <row r="121" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>87</v>
@@ -2806,7 +2865,7 @@
         <v>87</v>
       </c>
       <c r="F121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>159</v>
@@ -2814,7 +2873,7 @@
     </row>
     <row r="122" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>88</v>
@@ -2823,7 +2882,7 @@
         <v>88</v>
       </c>
       <c r="F122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>159</v>
@@ -2831,7 +2890,7 @@
     </row>
     <row r="123" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>89</v>
@@ -2840,7 +2899,7 @@
         <v>89</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>159</v>
@@ -2848,7 +2907,7 @@
     </row>
     <row r="124" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>90</v>
@@ -2857,7 +2916,7 @@
         <v>90</v>
       </c>
       <c r="F124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>159</v>
@@ -2865,7 +2924,7 @@
     </row>
     <row r="125" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>91</v>
@@ -2874,7 +2933,7 @@
         <v>91</v>
       </c>
       <c r="F125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>159</v>
@@ -2882,7 +2941,7 @@
     </row>
     <row r="126" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>92</v>
@@ -2891,7 +2950,7 @@
         <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>159</v>
@@ -2899,7 +2958,7 @@
     </row>
     <row r="127" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>93</v>
@@ -2908,7 +2967,7 @@
         <v>93</v>
       </c>
       <c r="F127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>159</v>
@@ -2916,7 +2975,7 @@
     </row>
     <row r="128" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>94</v>
@@ -2925,7 +2984,7 @@
         <v>94</v>
       </c>
       <c r="F128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>159</v>
@@ -2933,7 +2992,7 @@
     </row>
     <row r="129" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>95</v>
@@ -2942,7 +3001,7 @@
         <v>95</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>159</v>
@@ -2950,7 +3009,7 @@
     </row>
     <row r="130" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>96</v>
@@ -2959,7 +3018,7 @@
         <v>96</v>
       </c>
       <c r="F130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>159</v>
@@ -2967,7 +3026,7 @@
     </row>
     <row r="131" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>97</v>
@@ -2976,7 +3035,7 @@
         <v>97</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>159</v>
@@ -2984,7 +3043,7 @@
     </row>
     <row r="132" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>98</v>
@@ -2993,7 +3052,7 @@
         <v>98</v>
       </c>
       <c r="F132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>159</v>
@@ -3001,7 +3060,7 @@
     </row>
     <row r="133" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>99</v>
@@ -3010,7 +3069,7 @@
         <v>99</v>
       </c>
       <c r="F133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>159</v>
@@ -3018,7 +3077,7 @@
     </row>
     <row r="134" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>100</v>
@@ -3027,7 +3086,7 @@
         <v>100</v>
       </c>
       <c r="F134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>159</v>
@@ -3035,7 +3094,7 @@
     </row>
     <row r="135" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>101</v>
@@ -3044,7 +3103,7 @@
         <v>101</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>159</v>
@@ -3052,7 +3111,7 @@
     </row>
     <row r="136" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>102</v>
@@ -3061,7 +3120,7 @@
         <v>102</v>
       </c>
       <c r="F136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>159</v>
@@ -3069,7 +3128,7 @@
     </row>
     <row r="137" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>103</v>
@@ -3078,7 +3137,7 @@
         <v>103</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>159</v>
@@ -3086,7 +3145,7 @@
     </row>
     <row r="138" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>104</v>
@@ -3095,7 +3154,7 @@
         <v>104</v>
       </c>
       <c r="F138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>159</v>
@@ -3103,7 +3162,7 @@
     </row>
     <row r="139" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>105</v>
@@ -3112,7 +3171,7 @@
         <v>105</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>159</v>
@@ -3120,7 +3179,7 @@
     </row>
     <row r="140" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>106</v>
@@ -3129,7 +3188,7 @@
         <v>106</v>
       </c>
       <c r="F140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>159</v>
@@ -3137,7 +3196,7 @@
     </row>
     <row r="141" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>107</v>
@@ -3146,7 +3205,7 @@
         <v>107</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>159</v>
@@ -3154,7 +3213,7 @@
     </row>
     <row r="142" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>108</v>
@@ -3163,7 +3222,7 @@
         <v>108</v>
       </c>
       <c r="F142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>159</v>
@@ -3171,7 +3230,7 @@
     </row>
     <row r="143" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>109</v>
@@ -3180,7 +3239,7 @@
         <v>109</v>
       </c>
       <c r="F143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>159</v>
@@ -3188,7 +3247,7 @@
     </row>
     <row r="144" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>110</v>
@@ -3197,7 +3256,7 @@
         <v>110</v>
       </c>
       <c r="F144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>159</v>
@@ -3205,7 +3264,7 @@
     </row>
     <row r="145" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>111</v>
@@ -3214,7 +3273,7 @@
         <v>111</v>
       </c>
       <c r="F145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>159</v>
@@ -3222,7 +3281,7 @@
     </row>
     <row r="146" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>112</v>
@@ -3231,7 +3290,7 @@
         <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>159</v>
@@ -3239,7 +3298,7 @@
     </row>
     <row r="147" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>113</v>
@@ -3248,7 +3307,7 @@
         <v>113</v>
       </c>
       <c r="F147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>159</v>
@@ -3256,7 +3315,7 @@
     </row>
     <row r="148" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>114</v>
@@ -3265,7 +3324,7 @@
         <v>114</v>
       </c>
       <c r="F148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>159</v>
@@ -3273,7 +3332,7 @@
     </row>
     <row r="149" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>115</v>
@@ -3282,7 +3341,7 @@
         <v>115</v>
       </c>
       <c r="F149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>159</v>
@@ -3290,7 +3349,7 @@
     </row>
     <row r="150" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>116</v>
@@ -3299,7 +3358,7 @@
         <v>116</v>
       </c>
       <c r="F150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>159</v>
@@ -3307,7 +3366,7 @@
     </row>
     <row r="151" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>117</v>
@@ -3316,7 +3375,7 @@
         <v>117</v>
       </c>
       <c r="F151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>159</v>
@@ -3324,7 +3383,7 @@
     </row>
     <row r="152" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>118</v>
@@ -3333,7 +3392,7 @@
         <v>118</v>
       </c>
       <c r="F152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>159</v>
@@ -3341,7 +3400,7 @@
     </row>
     <row r="153" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>119</v>
@@ -3350,7 +3409,7 @@
         <v>119</v>
       </c>
       <c r="F153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>159</v>
@@ -3358,7 +3417,7 @@
     </row>
     <row r="154" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>120</v>
@@ -3367,7 +3426,7 @@
         <v>120</v>
       </c>
       <c r="F154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>159</v>
@@ -3375,7 +3434,7 @@
     </row>
     <row r="155" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>121</v>
@@ -3384,7 +3443,7 @@
         <v>121</v>
       </c>
       <c r="F155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>159</v>
@@ -3392,7 +3451,7 @@
     </row>
     <row r="156" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>122</v>
@@ -3401,7 +3460,7 @@
         <v>122</v>
       </c>
       <c r="F156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>159</v>
@@ -3409,7 +3468,7 @@
     </row>
     <row r="157" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>123</v>
@@ -3418,7 +3477,7 @@
         <v>123</v>
       </c>
       <c r="F157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>159</v>
@@ -3426,7 +3485,7 @@
     </row>
     <row r="158" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>124</v>
@@ -3435,7 +3494,7 @@
         <v>124</v>
       </c>
       <c r="F158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>159</v>
@@ -3443,7 +3502,7 @@
     </row>
     <row r="159" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>125</v>
@@ -3452,7 +3511,7 @@
         <v>125</v>
       </c>
       <c r="F159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>159</v>
